--- a/medicine/Handicap/Nikocado_Avocado/Nikocado_Avocado.xlsx
+++ b/medicine/Handicap/Nikocado_Avocado/Nikocado_Avocado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nicholas Perry (Kherson, Ukraine, 19 mai 1992), connu sous son pseudonyme Nikocado Avocado, est une célébrité Internet américaine connue pour ses vidéos mukbang. À la suite du succès viral de plusieurs vidéos où il renie son mode de vie vegan, il finit par gagner un large public sur YouTube en mangeant de grosses quantités de nourriture.
 </t>
@@ -511,7 +523,9 @@
           <t>Vie personnelle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Perry, né à Kherson, en Ukraine, est adopté bébé par une famille américaine.
 Avant de devenir une célébrité sur Internet, Perry pratique le théâtre à l'université, où il reçoit des rappels pour The Glee Project. Il devient violoniste et travaille chez The Home Depot tout en poursuivant une carrière de musicien indépendant. 
@@ -546,9 +560,11 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le contenu initial de Nicholas comprenait des vidéos de lui jouant du violon et des vlogs de style de vie végétalien. En 2016, il a publié une vidéo sur sa chaîne expliquant pourquoi il n'était plus végétalien, évoquant des problèmes de santé[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le contenu initial de Nicholas comprenait des vidéos de lui jouant du violon et des vlogs de style de vie végétalien. En 2016, il a publié une vidéo sur sa chaîne expliquant pourquoi il n'était plus végétalien, évoquant des problèmes de santé.
 Après 2016, Perry a commencé à créer des vidéos muk-bang ; le premier a obtenu 50 000 vues en quelques semaines. Il est devenu l'un des premiers hommes américains à participer à la tendance, et est apparu dans la série Comedy Central Tosh.0 en 2018. Au début de ses vidéos muk-bang, il était connu pour avoir son perroquet de compagnie assis sur son épaule pendant qu'il mangeait. Il dit qu'il a eu des épisodes maniaques dus à sa mauvaise alimentation et qu'il a utilisé ses moments faibles pour encourager les vues de ses vidéos, en utilisant parfois des clickbait. 
 Perry a déclaré en 2019 qu'il ne prévoyait de créer des vidéos muk-bang que « pendant encore quelques années » et que « c'est très malsain. » De nombreuses vidéos émotionnellement turbulentes téléchargées par Perry ont également amené les gens à s'interroger sur l'état de sa santé mentale. Fin 2020, il a créé un compte OnlyFans pour publier du contenu pornographique sur lui-même et son mari Orlin Home mais également, sur Cameo et Patreon.
 </t>
